--- a/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>52639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35058</v>
+        <v>35911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67483</v>
+        <v>67879</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5141098490629518</v>
+        <v>0.5141098490629517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3424028041361522</v>
+        <v>0.3507375113086247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6590932966732485</v>
+        <v>0.6629617450476062</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -762,19 +762,19 @@
         <v>60644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47641</v>
+        <v>48135</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72019</v>
+        <v>71214</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6610180104784318</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5192832954911694</v>
+        <v>0.5246726663287189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7850055211180369</v>
+        <v>0.7762330049908764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -783,19 +783,19 @@
         <v>113282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93138</v>
+        <v>93416</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133039</v>
+        <v>132223</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5835361490982283</v>
+        <v>0.5835361490982282</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4797693134260905</v>
+        <v>0.4812012515503979</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.685306136810637</v>
+        <v>0.681102978180085</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>26222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15393</v>
+        <v>15255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41418</v>
+        <v>42307</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2561061394883297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1503445757127801</v>
+        <v>0.1489923049883267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4045197689211137</v>
+        <v>0.4132031034165445</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>17448</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9437</v>
+        <v>9699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27474</v>
+        <v>29323</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1901843741516077</v>
+        <v>0.1901843741516078</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1028580930183442</v>
+        <v>0.1057193726097593</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2994657218060683</v>
+        <v>0.3196208710577305</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -854,19 +854,19 @@
         <v>43670</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29066</v>
+        <v>28552</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61017</v>
+        <v>59796</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2249526336856216</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1497260978103978</v>
+        <v>0.1470757853415183</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3143109027243697</v>
+        <v>0.3080174923026678</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>15767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6162</v>
+        <v>5475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34425</v>
+        <v>32913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1539960534668418</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06017823975053135</v>
+        <v>0.05347355705043036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3362257413902804</v>
+        <v>0.3214577693650121</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>3912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10830</v>
+        <v>10744</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04264309532226529</v>
+        <v>0.0426430953222653</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01266570949655293</v>
+        <v>0.01273757264972929</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1180487581855011</v>
+        <v>0.1171045349874556</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -925,19 +925,19 @@
         <v>19680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8668</v>
+        <v>8660</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39990</v>
+        <v>38706</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1013725381531015</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04464990701265256</v>
+        <v>0.04461046449085239</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2059962126551295</v>
+        <v>0.199378268503711</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19888</v>
+        <v>16161</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04431543149983769</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1942429851717704</v>
+        <v>0.1578414986166126</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9282</v>
+        <v>9393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02906646493569929</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1011735132919445</v>
+        <v>0.1023835178912631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -996,19 +996,19 @@
         <v>7204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2186</v>
+        <v>1909</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18074</v>
+        <v>18805</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03710902909367284</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01125932474192561</v>
+        <v>0.009835246034958535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09309971136563179</v>
+        <v>0.09686778887186054</v>
       </c>
     </row>
     <row r="8">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11737</v>
+        <v>12261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03147252648203897</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1146298020306223</v>
+        <v>0.1197517228952901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1046,19 +1046,19 @@
         <v>7072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1908</v>
+        <v>1961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18913</v>
+        <v>19436</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07708805511199596</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02079785352280742</v>
+        <v>0.02137370379031859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2061491724880617</v>
+        <v>0.2118554640533487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1067,19 +1067,19 @@
         <v>10295</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2998</v>
+        <v>3595</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22195</v>
+        <v>23087</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05302964996937594</v>
+        <v>0.05302964996937593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01544455274667667</v>
+        <v>0.01851717036129484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.114329562147235</v>
+        <v>0.1189226650294553</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>192927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167758</v>
+        <v>165348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>220717</v>
+        <v>220789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4872888622890306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4237176912861329</v>
+        <v>0.4176288584532339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5574798272769269</v>
+        <v>0.5576598859362455</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1239,19 +1239,19 @@
         <v>168209</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149763</v>
+        <v>149709</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186198</v>
+        <v>187397</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5269611535386829</v>
+        <v>0.5269611535386828</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4691741803719958</v>
+        <v>0.469006174929715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5833171317711375</v>
+        <v>0.5870746867942956</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>271</v>
@@ -1260,19 +1260,19 @@
         <v>361136</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>328242</v>
+        <v>330119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>394640</v>
+        <v>390605</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5049970795639523</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4589990834687979</v>
+        <v>0.4616237587963272</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5518476382169496</v>
+        <v>0.5462057543975014</v>
       </c>
     </row>
     <row r="12">
@@ -1289,19 +1289,19 @@
         <v>87531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68445</v>
+        <v>67740</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108260</v>
+        <v>110735</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2210834799356157</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1728756466290598</v>
+        <v>0.1710947197286003</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2734393061918435</v>
+        <v>0.2796909766558891</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -1310,19 +1310,19 @@
         <v>72312</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58279</v>
+        <v>57682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>89218</v>
+        <v>87135</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2265377605706793</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1825753231218591</v>
+        <v>0.1807039577964542</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2794993898865747</v>
+        <v>0.2729765620488681</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>134</v>
@@ -1331,19 +1331,19 @@
         <v>159843</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>135839</v>
+        <v>134298</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>187271</v>
+        <v>185862</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.223518065474331</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1899511672137488</v>
+        <v>0.1877959509019797</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2618716452544244</v>
+        <v>0.2599009912066939</v>
       </c>
     </row>
     <row r="13">
@@ -1360,19 +1360,19 @@
         <v>39446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25900</v>
+        <v>26827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57446</v>
+        <v>59669</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09963181766475977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06541700739830449</v>
+        <v>0.06775857375823989</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.145094364143321</v>
+        <v>0.1507085749781086</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1381,19 +1381,19 @@
         <v>24113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16728</v>
+        <v>16202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35384</v>
+        <v>34696</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0755399401582086</v>
+        <v>0.07553994015820858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05240476571197214</v>
+        <v>0.05075849500650488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1108501864372069</v>
+        <v>0.1086955297357392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -1402,19 +1402,19 @@
         <v>63559</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47977</v>
+        <v>48231</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83272</v>
+        <v>83695</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08887811053042451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06708838237220674</v>
+        <v>0.06744348350712097</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1164437147384765</v>
+        <v>0.1170355283820275</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>47106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30839</v>
+        <v>32091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68664</v>
+        <v>67538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1189784888143674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07789269818619717</v>
+        <v>0.08105503456509018</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1734301574109097</v>
+        <v>0.1705856740871362</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1452,19 +1452,19 @@
         <v>26592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17791</v>
+        <v>17416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38006</v>
+        <v>37738</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08330757251482385</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05573638604391437</v>
+        <v>0.05456139889534518</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1190655845631146</v>
+        <v>0.1182253382256687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -1473,19 +1473,19 @@
         <v>73698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55824</v>
+        <v>55941</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>97350</v>
+        <v>95668</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1030563346777972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07806170004231336</v>
+        <v>0.07822515422094946</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1361303043842943</v>
+        <v>0.1337787065840483</v>
       </c>
     </row>
     <row r="15">
@@ -1502,19 +1502,19 @@
         <v>17171</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7470</v>
+        <v>8073</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33541</v>
+        <v>34306</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04337095471285424</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01886736112805097</v>
+        <v>0.02039108471370185</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08471696693499903</v>
+        <v>0.08664998654230859</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -1523,19 +1523,19 @@
         <v>22024</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14014</v>
+        <v>13960</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32716</v>
+        <v>33472</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06899792613469478</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04390225414711872</v>
+        <v>0.04373278913474112</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1024920787302695</v>
+        <v>0.1048604931248775</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>29</v>
@@ -1544,19 +1544,19 @@
         <v>39196</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>26128</v>
+        <v>25893</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>59774</v>
+        <v>58824</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05480986997944207</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03653608880402529</v>
+        <v>0.0362076500356841</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08358526992407835</v>
+        <v>0.0822574928601707</v>
       </c>
     </row>
     <row r="16">
@@ -1573,19 +1573,19 @@
         <v>11738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4628</v>
+        <v>4671</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22754</v>
+        <v>22657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02964639658337238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01168911959717115</v>
+        <v>0.01179882585237729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05747147660627545</v>
+        <v>0.05722536560788152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1594,19 +1594,19 @@
         <v>5955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2194</v>
+        <v>2435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13068</v>
+        <v>13976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01865564708291078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00687462627481406</v>
+        <v>0.007627553061718754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04093769888896989</v>
+        <v>0.0437847597717945</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1615,19 +1615,19 @@
         <v>17693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10076</v>
+        <v>9392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30146</v>
+        <v>30760</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02474053977405288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01408916492108608</v>
+        <v>0.01313365306110378</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04215475471539709</v>
+        <v>0.0430128536094189</v>
       </c>
     </row>
     <row r="17">
@@ -1719,19 +1719,19 @@
         <v>267404</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>242767</v>
+        <v>243901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>289904</v>
+        <v>292279</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4968060636636406</v>
+        <v>0.4968060636636407</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4510327165703759</v>
+        <v>0.4531402286856326</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5386083396370135</v>
+        <v>0.5430221018216688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>238</v>
@@ -1740,19 +1740,19 @@
         <v>175160</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>158436</v>
+        <v>158693</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>191786</v>
+        <v>193345</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4406830703654184</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3986069014836207</v>
+        <v>0.399254861908643</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4825121294465387</v>
+        <v>0.4864342764385312</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>466</v>
@@ -1761,19 +1761,19 @@
         <v>442564</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>411153</v>
+        <v>411406</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>473768</v>
+        <v>474350</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4729661980839744</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4393979058247051</v>
+        <v>0.4396678158873087</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.506313641512029</v>
+        <v>0.5069355326597392</v>
       </c>
     </row>
     <row r="19">
@@ -1790,19 +1790,19 @@
         <v>120797</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103503</v>
+        <v>100665</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143439</v>
+        <v>142018</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2244275544238912</v>
+        <v>0.2244275544238911</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1922965989414199</v>
+        <v>0.1870238098054658</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2664925676862553</v>
+        <v>0.2638525302753353</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>154</v>
@@ -1811,19 +1811,19 @@
         <v>102552</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87026</v>
+        <v>88788</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>115764</v>
+        <v>116937</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2580100337473634</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2189468881224973</v>
+        <v>0.2233813225861276</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2912490974063758</v>
+        <v>0.2942003410807918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>267</v>
@@ -1832,19 +1832,19 @@
         <v>223350</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>201672</v>
+        <v>199941</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>249684</v>
+        <v>250830</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2386926843796175</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2155257450793631</v>
+        <v>0.2136763546855814</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2668367141842673</v>
+        <v>0.2680613488948628</v>
       </c>
     </row>
     <row r="20">
@@ -1861,19 +1861,19 @@
         <v>46669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33478</v>
+        <v>34768</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61766</v>
+        <v>62008</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08670641329607319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06219839260778912</v>
+        <v>0.06459590729884077</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1147549575460344</v>
+        <v>0.1152033673138759</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -1882,19 +1882,19 @@
         <v>32022</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24177</v>
+        <v>23952</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42419</v>
+        <v>41862</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08056348162923704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06082678145369523</v>
+        <v>0.06026114691005307</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1067226030228258</v>
+        <v>0.1053189683057962</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -1903,19 +1903,19 @@
         <v>78691</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63832</v>
+        <v>62985</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97016</v>
+        <v>96272</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08409702529667921</v>
+        <v>0.08409702529667923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06821714785716371</v>
+        <v>0.06731159923734142</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1036810689359821</v>
+        <v>0.1028859543952249</v>
       </c>
     </row>
     <row r="21">
@@ -1932,19 +1932,19 @@
         <v>59795</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45048</v>
+        <v>44772</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>76508</v>
+        <v>76216</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1110931988042876</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08369406021101898</v>
+        <v>0.08318165185764921</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1421437475880019</v>
+        <v>0.14160031465868</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>56</v>
@@ -1953,19 +1953,19 @@
         <v>42538</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32192</v>
+        <v>33186</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54111</v>
+        <v>54472</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1070219974127462</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08099108961333742</v>
+        <v>0.0834911139626167</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1361371215685823</v>
+        <v>0.1370461686921728</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -1974,19 +1974,19 @@
         <v>102334</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>85271</v>
+        <v>82560</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>125443</v>
+        <v>122542</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1093638381943436</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09112855017414545</v>
+        <v>0.0882315270448137</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.134060135153631</v>
+        <v>0.1309604348545594</v>
       </c>
     </row>
     <row r="22">
@@ -2003,19 +2003,19 @@
         <v>25193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16670</v>
+        <v>16665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37105</v>
+        <v>37917</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04680580960943028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0309706952762477</v>
+        <v>0.03096216846779917</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06893770756519538</v>
+        <v>0.07044625095708293</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2024,19 +2024,19 @@
         <v>34472</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25065</v>
+        <v>25354</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45292</v>
+        <v>44419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08672777396819754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06306081224773247</v>
+        <v>0.06378775582583561</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1139487633385611</v>
+        <v>0.1117521049175799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -2045,19 +2045,19 @@
         <v>59665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46333</v>
+        <v>46368</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74375</v>
+        <v>75255</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0637638192959768</v>
+        <v>0.06376381929597681</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04951633174855097</v>
+        <v>0.04955294847170799</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07948436212605325</v>
+        <v>0.08042421315652939</v>
       </c>
     </row>
     <row r="23">
@@ -2074,19 +2074,19 @@
         <v>18387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10685</v>
+        <v>10812</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29899</v>
+        <v>28945</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03416096020267725</v>
+        <v>0.03416096020267724</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0198510994774529</v>
+        <v>0.02008711117697739</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.055548797878762</v>
+        <v>0.05377670222188864</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2095,19 +2095,19 @@
         <v>10729</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6073</v>
+        <v>6001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17649</v>
+        <v>17934</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02699364287703746</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01528015371970331</v>
+        <v>0.0150987935579808</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04440318407104666</v>
+        <v>0.04511934151153797</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -2116,19 +2116,19 @@
         <v>29116</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19594</v>
+        <v>19686</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42190</v>
+        <v>41993</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03111643474940855</v>
+        <v>0.03111643474940856</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02094016847745062</v>
+        <v>0.02103838214465663</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04508854861433636</v>
+        <v>0.0448779386957688</v>
       </c>
     </row>
     <row r="24">
@@ -2220,19 +2220,19 @@
         <v>286590</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>262531</v>
+        <v>262451</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>309735</v>
+        <v>310250</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5248203387299276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4807619165177315</v>
+        <v>0.480615361853378</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.567203557749017</v>
+        <v>0.5681465891854742</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>349</v>
@@ -2241,19 +2241,19 @@
         <v>226527</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>208961</v>
+        <v>209411</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>244200</v>
+        <v>243472</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4987590752936047</v>
+        <v>0.4987590752936048</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4600819225721706</v>
+        <v>0.461072520349656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5376690419616902</v>
+        <v>0.5360669505538348</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>614</v>
@@ -2262,19 +2262,19 @@
         <v>513117</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>484168</v>
+        <v>483178</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>540299</v>
+        <v>539929</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5129868010777128</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4840455244791262</v>
+        <v>0.4830556678944287</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5401621916766274</v>
+        <v>0.5397918400559325</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>129743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>110431</v>
+        <v>111446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>152321</v>
+        <v>150893</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2375936506747269</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2022280730072538</v>
+        <v>0.2040864560169928</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2789384403056733</v>
+        <v>0.2763240307098103</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>162</v>
@@ -2312,19 +2312,19 @@
         <v>96671</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>83157</v>
+        <v>83402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109987</v>
+        <v>110930</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2128462574036251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1830916915057766</v>
+        <v>0.1836311361537134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2421657486018751</v>
+        <v>0.2442419535416943</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -2333,19 +2333,19 @@
         <v>226414</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>203445</v>
+        <v>201689</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>251935</v>
+        <v>252410</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2263566969950525</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2033929348212045</v>
+        <v>0.2016380194040878</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2518707981987437</v>
+        <v>0.2523457635032448</v>
       </c>
     </row>
     <row r="27">
@@ -2362,19 +2362,19 @@
         <v>35931</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26878</v>
+        <v>26650</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49130</v>
+        <v>49370</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06579831398152393</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04922132289968629</v>
+        <v>0.04880242427745821</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08996900931921799</v>
+        <v>0.09040904153167403</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>72</v>
@@ -2383,19 +2383,19 @@
         <v>46971</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>37102</v>
+        <v>36630</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>57592</v>
+        <v>57149</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1034197908026306</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08168871005643785</v>
+        <v>0.08065011415577297</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1268039809670546</v>
+        <v>0.1258273340885981</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>108</v>
@@ -2404,19 +2404,19 @@
         <v>82902</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>69177</v>
+        <v>67896</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>100639</v>
+        <v>101049</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08288095326270338</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06915970300244464</v>
+        <v>0.06787902378505133</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1006135809815771</v>
+        <v>0.1010233593742871</v>
       </c>
     </row>
     <row r="28">
@@ -2433,19 +2433,19 @@
         <v>41576</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31579</v>
+        <v>29507</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57357</v>
+        <v>55407</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07613547790814526</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05782939607389678</v>
+        <v>0.05403433958924909</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.10503538029892</v>
+        <v>0.1014635826299804</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -2454,19 +2454,19 @@
         <v>39966</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31321</v>
+        <v>30523</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51089</v>
+        <v>50052</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08799462778054183</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06896110123692466</v>
+        <v>0.06720410584780463</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1124865208537269</v>
+        <v>0.110203376784261</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>101</v>
@@ -2475,19 +2475,19 @@
         <v>81541</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>67635</v>
+        <v>67884</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>97464</v>
+        <v>99340</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08152031647827655</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.067618001535821</v>
+        <v>0.06786657282165881</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09743919905711806</v>
+        <v>0.09931447240368131</v>
       </c>
     </row>
     <row r="29">
@@ -2504,19 +2504,19 @@
         <v>33668</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23673</v>
+        <v>23141</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47878</v>
+        <v>47562</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06165556566819434</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04335189923391097</v>
+        <v>0.04237699974621165</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08767715133934309</v>
+        <v>0.08709776447781596</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -2525,19 +2525,19 @@
         <v>28934</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21777</v>
+        <v>21227</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38458</v>
+        <v>38160</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.063706467183587</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04794706473662209</v>
+        <v>0.04673739463849454</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0846757308781015</v>
+        <v>0.08401950274543622</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>74</v>
@@ -2546,19 +2546,19 @@
         <v>62603</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47575</v>
+        <v>48562</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>78864</v>
+        <v>77322</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06258681063115182</v>
+        <v>0.06258681063115183</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04756252740588722</v>
+        <v>0.04854988414558913</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07884391950782228</v>
+        <v>0.07730225274688976</v>
       </c>
     </row>
     <row r="30">
@@ -2575,19 +2575,19 @@
         <v>18565</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10428</v>
+        <v>10834</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29630</v>
+        <v>28409</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0339966530374818</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01909718538759654</v>
+        <v>0.01983927982919677</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05425944523040977</v>
+        <v>0.05202390334782878</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -2596,19 +2596,19 @@
         <v>15112</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9844</v>
+        <v>9626</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22564</v>
+        <v>22004</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03327378153601093</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02167349281700564</v>
+        <v>0.02119399316524386</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04968125228483381</v>
+        <v>0.04844771191268785</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>38</v>
@@ -2617,19 +2617,19 @@
         <v>33677</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24307</v>
+        <v>24259</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>47073</v>
+        <v>45767</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.033668421555103</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02430065457107307</v>
+        <v>0.02425313066974683</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04706079573914507</v>
+        <v>0.0457552829165114</v>
       </c>
     </row>
     <row r="31">
@@ -2721,19 +2721,19 @@
         <v>163467</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>147666</v>
+        <v>145114</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>181613</v>
+        <v>179263</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4987116051783814</v>
+        <v>0.4987116051783812</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4505051719996263</v>
+        <v>0.4427189267658819</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5540736037476629</v>
+        <v>0.5469043048468615</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>180</v>
@@ -2742,19 +2742,19 @@
         <v>111502</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>99941</v>
+        <v>100052</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>122645</v>
+        <v>122713</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4788720453614665</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4292189483778348</v>
+        <v>0.4296958964416631</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5267301206405269</v>
+        <v>0.527019112950873</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>351</v>
@@ -2763,19 +2763,19 @@
         <v>274969</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>256257</v>
+        <v>252282</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>295025</v>
+        <v>294597</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4904716413019127</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4570940161446717</v>
+        <v>0.4500049179631003</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5262474049138955</v>
+        <v>0.5254834885451327</v>
       </c>
     </row>
     <row r="33">
@@ -2792,19 +2792,19 @@
         <v>81247</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>67555</v>
+        <v>68095</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>97219</v>
+        <v>97643</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2478734392951166</v>
+        <v>0.2478734392951165</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2060999566294758</v>
+        <v>0.2077483964291633</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2965997214632728</v>
+        <v>0.2978944367648184</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>111</v>
@@ -2813,19 +2813,19 @@
         <v>60316</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>50298</v>
+        <v>49898</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>70383</v>
+        <v>69673</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2590405210771095</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2160162473406932</v>
+        <v>0.2142986468770535</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3022762056300556</v>
+        <v>0.2992277829035443</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>204</v>
@@ -2834,19 +2834,19 @@
         <v>141563</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>124401</v>
+        <v>122689</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>160874</v>
+        <v>160446</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2525114630889075</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2218978385881525</v>
+        <v>0.2188446352733955</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2869570567364899</v>
+        <v>0.2861932319665918</v>
       </c>
     </row>
     <row r="34">
@@ -2863,19 +2863,19 @@
         <v>25960</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17944</v>
+        <v>18043</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36992</v>
+        <v>37123</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.07920053194781605</v>
+        <v>0.07920053194781602</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05474306103403329</v>
+        <v>0.055045395411531</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1128571877352725</v>
+        <v>0.1132551813340132</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>29</v>
@@ -2884,19 +2884,19 @@
         <v>17995</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>12544</v>
+        <v>12224</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25818</v>
+        <v>25246</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0772843289879129</v>
+        <v>0.07728432898791289</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05387358804282759</v>
+        <v>0.0524970106116353</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1108811839127617</v>
+        <v>0.1084240690095917</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>58</v>
@@ -2905,19 +2905,19 @@
         <v>43955</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>33217</v>
+        <v>33594</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>56729</v>
+        <v>57812</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07840467542099318</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05925040021610164</v>
+        <v>0.05992358501179611</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1011903757928509</v>
+        <v>0.1031205697180169</v>
       </c>
     </row>
     <row r="35">
@@ -2934,19 +2934,19 @@
         <v>26324</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17742</v>
+        <v>18104</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>36971</v>
+        <v>37970</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.08030960812192811</v>
+        <v>0.08030960812192807</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05412959604185126</v>
+        <v>0.05523287117348231</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1127936209469298</v>
+        <v>0.1158409255287247</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>38</v>
@@ -2955,19 +2955,19 @@
         <v>23510</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16944</v>
+        <v>17021</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31048</v>
+        <v>30991</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1009696816788989</v>
+        <v>0.1009696816788988</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0727711014751637</v>
+        <v>0.07309985506632002</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1333440661438471</v>
+        <v>0.1330976181376735</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>67</v>
@@ -2976,19 +2976,19 @@
         <v>49834</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>39496</v>
+        <v>39383</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>61962</v>
+        <v>63431</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08889035594928058</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07045075898112642</v>
+        <v>0.07024966555457959</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1105246459978823</v>
+        <v>0.1131448367057336</v>
       </c>
     </row>
     <row r="36">
@@ -3005,19 +3005,19 @@
         <v>19641</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12785</v>
+        <v>13130</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29756</v>
+        <v>29462</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.05992012942554466</v>
+        <v>0.05992012942554464</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03900653381452134</v>
+        <v>0.0400582837561456</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09078206482579593</v>
+        <v>0.08988373993753959</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>18</v>
@@ -3026,19 +3026,19 @@
         <v>11829</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7137</v>
+        <v>7012</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>17732</v>
+        <v>18558</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.0508034241416819</v>
+        <v>0.05080342414168189</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03065260677009751</v>
+        <v>0.030116750598429</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07615457078723961</v>
+        <v>0.07970122324851284</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>40</v>
@@ -3047,19 +3047,19 @@
         <v>31470</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22223</v>
+        <v>23070</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>40961</v>
+        <v>42805</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05613368845081133</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03963970175434401</v>
+        <v>0.04115118175017976</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0730636455127319</v>
+        <v>0.07635234367647184</v>
       </c>
     </row>
     <row r="37">
@@ -3076,19 +3076,19 @@
         <v>11139</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6018</v>
+        <v>6076</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19454</v>
+        <v>18361</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03398468603121352</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0183590458511684</v>
+        <v>0.01853550639011939</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0593518887852652</v>
+        <v>0.05601785778477236</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3097,19 +3097,19 @@
         <v>7691</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4478</v>
+        <v>4212</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13046</v>
+        <v>13119</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03302999875293036</v>
+        <v>0.03302999875293035</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01923057932399259</v>
+        <v>0.01808876193150757</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05602776582834752</v>
+        <v>0.05634288695023472</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>24</v>
@@ -3118,19 +3118,19 @@
         <v>18830</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12609</v>
+        <v>11758</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>28560</v>
+        <v>28417</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03358817578809459</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0224913792791571</v>
+        <v>0.02097266192542132</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05094333320612816</v>
+        <v>0.05068890596345713</v>
       </c>
     </row>
     <row r="38">
@@ -3222,19 +3222,19 @@
         <v>963027</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>916366</v>
+        <v>909052</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1009484</v>
+        <v>1010553</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5040956535227601</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4796712257427957</v>
+        <v>0.4758426703880251</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5284136707433497</v>
+        <v>0.5289731708604972</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>954</v>
@@ -3243,19 +3243,19 @@
         <v>742041</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>707033</v>
+        <v>707011</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>779216</v>
+        <v>774737</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.4962006987253156</v>
+        <v>0.4962006987253154</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.4727906844469485</v>
+        <v>0.4727759644728386</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.5210593655834893</v>
+        <v>0.5180643927727936</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1762</v>
@@ -3264,19 +3264,19 @@
         <v>1705069</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1649174</v>
+        <v>1650685</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1770719</v>
+        <v>1769419</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.500629124798544</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4842176877585278</v>
+        <v>0.4846615034891938</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5199050039415082</v>
+        <v>0.5195233059754014</v>
       </c>
     </row>
     <row r="40">
@@ -3293,19 +3293,19 @@
         <v>445542</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>405460</v>
+        <v>408852</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>488588</v>
+        <v>487841</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2332184729399282</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2122376558429965</v>
+        <v>0.2140130728700111</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.255751212603765</v>
+        <v>0.2553600692481565</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>513</v>
@@ -3314,19 +3314,19 @@
         <v>349299</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>321759</v>
+        <v>321395</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>378691</v>
+        <v>375672</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2335750278567334</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2151593161572646</v>
+        <v>0.2149156838081494</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2532292683660747</v>
+        <v>0.2512106548546201</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>926</v>
@@ -3335,19 +3335,19 @@
         <v>794841</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>743897</v>
+        <v>747775</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>843044</v>
+        <v>840235</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2333750296134719</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2184173495254148</v>
+        <v>0.2195559980254782</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.247528001723175</v>
+        <v>0.2467032166330155</v>
       </c>
     </row>
     <row r="41">
@@ -3364,19 +3364,19 @@
         <v>163774</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>136982</v>
+        <v>137492</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>193215</v>
+        <v>195390</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0857272848937541</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07170336519202186</v>
+        <v>0.07197012070842843</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.101138132818381</v>
+        <v>0.1022768030646017</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>172</v>
@@ -3385,19 +3385,19 @@
         <v>125013</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>107726</v>
+        <v>107134</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>145053</v>
+        <v>142806</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.08359596768817211</v>
+        <v>0.08359596768817208</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07203615525758481</v>
+        <v>0.07164005304613855</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09699614818381447</v>
+        <v>0.09549397207147182</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>311</v>
@@ -3406,19 +3406,19 @@
         <v>288787</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>254832</v>
+        <v>256274</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>322811</v>
+        <v>324793</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.0847914629032397</v>
+        <v>0.08479146290323969</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07482192343104435</v>
+        <v>0.07524520695704283</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09478135004708753</v>
+        <v>0.09536316402862535</v>
       </c>
     </row>
     <row r="42">
@@ -3435,19 +3435,19 @@
         <v>179338</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>154056</v>
+        <v>152752</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>210321</v>
+        <v>210436</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09387436973368526</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0806404315556556</v>
+        <v>0.0799580721427669</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1100925077338486</v>
+        <v>0.1101526392913961</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>181</v>
@@ -3456,19 +3456,19 @@
         <v>135273</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>115115</v>
+        <v>118439</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>156172</v>
+        <v>157443</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.09045654367511553</v>
+        <v>0.09045654367511549</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07697698318763636</v>
+        <v>0.07919997069339391</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1044317494384524</v>
+        <v>0.1052816036189523</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>331</v>
@@ -3477,19 +3477,19 @@
         <v>314611</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>282346</v>
+        <v>281722</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>352018</v>
+        <v>352399</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09237366548516431</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08290018144037384</v>
+        <v>0.08271710819851073</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1033568081031009</v>
+        <v>0.1034688158372964</v>
       </c>
     </row>
     <row r="43">
@@ -3506,19 +3506,19 @@
         <v>98896</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>77925</v>
+        <v>79004</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>123333</v>
+        <v>122853</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05176693755538068</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04078973343101534</v>
+        <v>0.04135436363417578</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06455855894140411</v>
+        <v>0.06430746283564126</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>128</v>
@@ -3527,19 +3527,19 @@
         <v>104332</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>86786</v>
+        <v>87048</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>125675</v>
+        <v>127374</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.0697666795585159</v>
+        <v>0.06976667955851588</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05803382097527974</v>
+        <v>0.05820883798956682</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08403851307155895</v>
+        <v>0.08517458592317774</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>215</v>
@@ -3548,19 +3548,19 @@
         <v>203228</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>176548</v>
+        <v>177161</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>232707</v>
+        <v>234579</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05967029156857175</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05183657154990998</v>
+        <v>0.0520165215758899</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06832554141816896</v>
+        <v>0.06887535446463212</v>
       </c>
     </row>
     <row r="44">
@@ -3577,19 +3577,19 @@
         <v>59829</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>42040</v>
+        <v>43376</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>78166</v>
+        <v>78995</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03131728135449175</v>
+        <v>0.03131728135449174</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02200574052828542</v>
+        <v>0.02270510734964667</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04091574954096647</v>
+        <v>0.04134968635958271</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>52</v>
@@ -3598,19 +3598,19 @@
         <v>39487</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>29367</v>
+        <v>29915</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>50301</v>
+        <v>51416</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.02640508249614757</v>
+        <v>0.02640508249614756</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01963764478452973</v>
+        <v>0.02000407232269921</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03363582708546796</v>
+        <v>0.03438139933823547</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>102</v>
@@ -3619,19 +3619,19 @@
         <v>99316</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>82322</v>
+        <v>81871</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>123260</v>
+        <v>122029</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02916042563100833</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02417068805417191</v>
+        <v>0.02403829536813512</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03619079295707198</v>
+        <v>0.03582915500423801</v>
       </c>
     </row>
     <row r="45">
